--- a/бонд 5.xlsx
+++ b/бонд 5.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="19275" windowHeight="11280" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="Автозаполнение и ссылки" sheetId="1" r:id="rId1"/>
     <sheet name="Ведомость" sheetId="4" r:id="rId2"/>
     <sheet name="Относительне ссылки" sheetId="2" r:id="rId3"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId4"/>
+    <sheet name="Абсолютные ссылки" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="101">
   <si>
     <t>Понедельник</t>
   </si>
@@ -275,6 +275,51 @@
   </si>
   <si>
     <t>Трифонова И.И.</t>
+  </si>
+  <si>
+    <t>Расход бензина</t>
+  </si>
+  <si>
+    <t>Стоимость бензина АИ-92 (руб.)</t>
+  </si>
+  <si>
+    <t>Город</t>
+  </si>
+  <si>
+    <t>Расстояние(км)</t>
+  </si>
+  <si>
+    <t>Расход бензина АИ-92 (л)</t>
+  </si>
+  <si>
+    <t>Итого в руб.</t>
+  </si>
+  <si>
+    <t>Тула</t>
+  </si>
+  <si>
+    <t>Рязань</t>
+  </si>
+  <si>
+    <t>Астрахань</t>
+  </si>
+  <si>
+    <t>Архангельск</t>
+  </si>
+  <si>
+    <t>Кострома</t>
+  </si>
+  <si>
+    <t>Саратов</t>
+  </si>
+  <si>
+    <t>Воронеж</t>
+  </si>
+  <si>
+    <t>Волгоград</t>
+  </si>
+  <si>
+    <t>ИТОГО</t>
   </si>
 </sst>
 </file>
@@ -282,10 +327,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -302,7 +356,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -310,23 +364,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -536,11 +616,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="158499584"/>
-        <c:axId val="158501120"/>
+        <c:axId val="143628928"/>
+        <c:axId val="143647104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="158499584"/>
+        <c:axId val="143628928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -556,21 +636,21 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158501120"/>
+        <c:crossAx val="143647104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158501120"/>
+        <c:axId val="143647104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="#,##0.00\ &quot;₽&quot;" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158499584"/>
+        <c:crossAx val="143628928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -588,7 +668,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="108" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -909,7 +989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
@@ -919,20 +999,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
@@ -2102,7 +2182,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" activeCellId="2" sqref="B4:B13 E4:E13 G4:G13"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2117,61 +2197,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="45">
-      <c r="A3" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="30">
+      <c r="A3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>720</v>
       </c>
       <c r="D4">
         <v>22</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f>C4*D4</f>
         <v>15840</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <f>E4*13%</f>
         <v>2059.2000000000003</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <f>E4-F4</f>
         <v>13780.8</v>
       </c>
@@ -2183,47 +2263,47 @@
       <c r="B5" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>770</v>
       </c>
       <c r="D5">
         <v>15</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <f t="shared" ref="E5:E13" si="0">C5*D5</f>
         <v>11550</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <f t="shared" ref="F5:F13" si="1">E5*13%</f>
         <v>1501.5</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <f t="shared" ref="G5:G13" si="2">E5-F5</f>
         <v>10048.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>820</v>
       </c>
       <c r="D6">
         <v>16</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
         <v>13120</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <f t="shared" si="1"/>
         <v>1705.6000000000001</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <f t="shared" si="2"/>
         <v>11414.4</v>
       </c>
@@ -2235,47 +2315,47 @@
       <c r="B7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>820</v>
       </c>
       <c r="D7">
         <v>21</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>17220</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <f t="shared" si="1"/>
         <v>2238.6</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <f t="shared" si="2"/>
         <v>14981.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>770</v>
       </c>
       <c r="D8">
         <v>20</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
         <v>15400</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <f t="shared" si="1"/>
         <v>2002</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <f t="shared" si="2"/>
         <v>13398</v>
       </c>
@@ -2287,47 +2367,47 @@
       <c r="B9" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>720</v>
       </c>
       <c r="D9">
         <v>19</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>13680</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <f t="shared" si="1"/>
         <v>1778.4</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <f t="shared" si="2"/>
         <v>11901.6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>720</v>
       </c>
       <c r="D10">
         <v>14</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <f t="shared" si="0"/>
         <v>10080</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <f t="shared" si="1"/>
         <v>1310.4000000000001</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <f t="shared" si="2"/>
         <v>8769.6</v>
       </c>
@@ -2339,47 +2419,47 @@
       <c r="B11" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>820</v>
       </c>
       <c r="D11">
         <v>16</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <f t="shared" si="0"/>
         <v>13120</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <f t="shared" si="1"/>
         <v>1705.6000000000001</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <f t="shared" si="2"/>
         <v>11414.4</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>770</v>
       </c>
       <c r="D12">
         <v>12</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <f t="shared" si="0"/>
         <v>9240</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <f t="shared" si="1"/>
         <v>1201.2</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <f t="shared" si="2"/>
         <v>8038.8</v>
       </c>
@@ -2391,21 +2471,21 @@
       <c r="B13" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>820</v>
       </c>
       <c r="D13">
         <v>22</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <f t="shared" si="0"/>
         <v>18040</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <f t="shared" si="1"/>
         <v>2345.2000000000003</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <f t="shared" si="2"/>
         <v>15694.8</v>
       </c>
@@ -2421,12 +2501,189 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="7">
+        <v>47.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="41.25" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="9">
+        <v>187</v>
+      </c>
+      <c r="C6" s="9">
+        <v>20</v>
+      </c>
+      <c r="D6" s="9">
+        <f>C6*$C$3</f>
+        <v>952.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="9">
+        <v>190</v>
+      </c>
+      <c r="C7" s="9">
+        <v>20</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" ref="D7:D13" si="0">C7*$C$3</f>
+        <v>952.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1450</v>
+      </c>
+      <c r="C8" s="9">
+        <v>140</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" si="0"/>
+        <v>6669.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1025</v>
+      </c>
+      <c r="C9" s="9">
+        <v>120</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>5716.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="9">
+        <v>310</v>
+      </c>
+      <c r="C10" s="9">
+        <v>30</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>1429.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="9">
+        <v>720</v>
+      </c>
+      <c r="C11" s="9">
+        <v>75</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="9">
+        <v>482</v>
+      </c>
+      <c r="C12" s="9">
+        <v>50</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1020</v>
+      </c>
+      <c r="C13" s="9">
+        <v>110</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="0"/>
+        <v>5240.3999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="6">
+        <f>SUM(C6:C13)</f>
+        <v>565</v>
+      </c>
+      <c r="D14" s="6">
+        <f>SUM(D6:D13)</f>
+        <v>26916.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
